--- a/Excel/4_2 DATA afr/Foute.xlsx
+++ b/Excel/4_2 DATA afr/Foute.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sandra\Documents\00000 CAT Gr10\4 EXCEL\4_2 Bereken\4_2 DATA afr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Skool Werk\Excel\4_2 DATA afr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19065" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Gemiddelde</t>
   </si>
@@ -66,18 +66,6 @@
   </si>
   <si>
     <t>Kyk mooi wat elk van die volgende foutboodskappe veroorsaak en maak dit reg.</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>2,6</t>
   </si>
   <si>
     <t>Antwoord</t>
@@ -386,6 +374,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -393,9 +384,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -496,23 +484,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -548,23 +519,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,11 +713,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -775,41 +729,41 @@
       <c r="B3" s="4">
         <v>250</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
+      <c r="C3" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>350</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
+      <c r="C4" s="7">
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>400</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
+      <c r="C5" s="7">
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>200</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
+      <c r="C6" s="7">
+        <v>2.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="18" t="e">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18">
         <f>SUM(B3:B6)/SUM(C3:C6)</f>
-        <v>#DIV/0!</v>
+        <v>151.89873417721518</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -835,12 +789,12 @@
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18" t="e">
-        <f>SUM(C9:C11)/#REF!</f>
-        <v>#REF!</v>
+      <c r="C12" s="18">
+        <f>SUM(C9:C11)/3</f>
+        <v>236.66666666666666</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -856,9 +810,9 @@
       <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="19" t="e">
-        <f>B15*2</f>
-        <v>#VALUE!</v>
+      <c r="C15" s="19" t="str">
+        <f>VALUE(SUBSTITUTE(B15, " m", "")) * 2 &amp; " m"</f>
+        <v>14 m</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,14 +902,14 @@
     <row r="27" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:4" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C28" s="21" t="e">
         <f>SQRT(-49)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>21</v>
+      <c r="D28" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
